--- a/output/fit_clients/fit_round_10.xlsx
+++ b/output/fit_clients/fit_round_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>9205219017.127573</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004749530556825906</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.422951314280401</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9604235350819188</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-5.422951314280401</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>4450244664.763544</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.004098396508201373</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.07467338968059</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9260769698757176</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-5.07467338968059</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6214473409.208067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002468700391364431</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0109381187427268</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.057501916714484</v>
-      </c>
-      <c r="M4" t="n">
-        <v>-0.4227718572693516</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.057501916714484</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4565063954.740121</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004008402328984777</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8810166136519195</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.780925551048139</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.055437749899028</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.780925551048139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>5876055724.120537</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002279613053305974</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.745767128280955</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.807061390724533</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-3.745767128280955</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6211855869.181492</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001254143168495327</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.034485130683925</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7000026855.324183</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003027157283560963</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>5.008920609892293</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9272047828713543</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-5.008920609892293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6709229398.526009</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005205778050781016</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>7.005078493146213</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9360034719842314</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-7.005078493146213</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3026545465.430573</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.005563252522928021</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>5.071236265702275</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9549673243167158</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-5.071236265702275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4244601049.015968</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00121602426705872</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="L11" t="n">
-        <v>4.143170403861952</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7504892513014516</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-4.143170403861952</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>7435600202.558536</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001888840728341123</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>5.192599028239935</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9798143503516831</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-5.192599028239935</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>5522062134.002266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003652988577450805</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>4.1663967425565</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.001082772720196</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-4.1663967425565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>5567117543.419747</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002862213608909744</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9932538828482665</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6208556610.781385</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003466078553330711</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.076078996128893</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7604243617.30702</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.003421112718106742</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>5.169335495740055</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9055361725068468</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-5.169335495740055</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>6301440201.216585</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.00223571372792002</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>5.019562715732275</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9283312257081735</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-5.019562715732275</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>4493803407.078177</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.0008360567586408719</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>7.089217990142034</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9689206143571673</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-7.089217990142034</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3460483485.268477</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002061063720058434</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.9854903899688615</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>5.106441351100871</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.288499740608635</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-5.106441351100871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>4777784019.041655</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001183162930695747</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.7337573281535211</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5.037522447453544</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.9592622467436672</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-5.037522447453544</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6050869960.686832</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.005803656603411803</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>5.266162515527272</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.877400725911805</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-5.266162515527272</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4321967384.192607</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.00399456194376724</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>7.240828628127567</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8831508128749072</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-7.240828628127567</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7267901652.768817</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001245385173826814</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>5.035635352183604</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9066895361498744</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-5.035635352183604</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>5853390655.381192</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.004634053113076457</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.082855988867881</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>4569849162.644522</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003458596528038068</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>4.258380246832475</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.8655968652628617</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-4.258380246832475</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5667939442.861292</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001046125228959577</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.931974207386685</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8483326634892556</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-4.931974207386685</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>8226205359.253479</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003183503939196117</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5.124385302834401</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9417434510357551</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-5.124385302834401</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7850609098.913702</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004170766126604095</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.9434980368807245</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.686973404677161</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.153818700408715</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.686973404677161</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>7933436157.679351</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001218481643444238</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>5.205559540099871</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9744667182251369</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-5.205559540099871</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>7855883844.358722</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003666968554763858</v>
       </c>
       <c r="G30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>4.970478976918173</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8997471775402952</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-4.970478976918173</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>6483768093.3214</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.002698877109747037</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>4.271335415248142</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9273813461328034</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-4.271335415248142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4824971464.011333</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001413396704862315</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5.387419257096338</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9372940342216181</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-5.387419257096338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>5229149198.547021</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002614972443304861</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7.231113651014797</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8890478808861937</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-7.231113651014797</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6209615492.460936</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004501140159871899</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8770274398668558</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5960949342.92162</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002014099001993883</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>7.130953119262643</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9817784983743351</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-7.130953119262643</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>8094284976.875489</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.002836854193120881</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>4</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.656775251031555</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0.9116476509573879</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.656775251031555</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4154783487.002206</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.003693705988956858</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.3075339466310955</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="L37" t="n">
-        <v>7.310381955892312</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.7706058782422155</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-7.310381955892312</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>4222909432.625401</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004495657036250115</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>4.116221303406795</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8558835733850118</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-4.116221303406795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4019292565.893903</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002229798060677453</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8536671173275517</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="L39" t="n">
-        <v>7.331528923941238</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.15118273880473</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-7.331528923941238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>7071349680.553439</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004385871450609449</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="L40" t="n">
-        <v>7.327341755680029</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1.037669216618517</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-7.327341755680029</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6062139547.526464</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001350087572685126</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>7.158019217748848</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9678414134975554</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-7.158019217748848</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5751386785.366358</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005246128672380153</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>4.998116782369665</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9840715330383196</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-4.998116782369665</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6528823266.397136</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00397509517333704</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>7.256678807342013</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9753707440754092</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-7.256678807342013</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>6591674273.368657</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.00193974398437807</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="L44" t="n">
-        <v>5.220489482927315</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9582447788788628</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-5.220489482927315</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>4758547671.116228</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001490883014088305</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>7.419842798518809</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.008039136642658</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-7.419842798518809</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>7337294961.852165</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.004841178556623417</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.9458258005567837</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8959920211.356771</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002121534944330397</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.005800745046976</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>6185357637.195489</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002673854834605669</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>7.185056675749255</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9785798659967365</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-7.185056675749255</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4888338463.528382</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005084288223131068</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>5</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.9284481725857333</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.425225859774518</v>
-      </c>
-      <c r="M49" t="n">
-        <v>1.082710061824153</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.425225859774518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>8153780469.17154</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.003949624643991008</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>7.209918200388412</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.033632808175315</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-7.209918200388412</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5448852257.90541</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.003948392544190395</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>2</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.1365544609837641</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>5.168103515302897</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.2843751087708416</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-5.168103515302897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6783554431.262746</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001458625563374545</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>7.069659733329556</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.9099609491203854</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-7.069659733329556</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>4704690068.949093</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002996839452205309</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="L53" t="n">
-        <v>7.152082251907804</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.339828576353488</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-7.152082251907804</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5231387058.229871</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005053085637780388</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>4.118062503636341</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8081527033104365</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-4.118062503636341</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>5740028153.814839</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.003060139489053899</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5.091419926664217</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.9204171760172495</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-5.091419926664217</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>5622501227.346283</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002979350805452635</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7.172741030143031</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9645965664177809</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-7.172741030143031</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7447937736.102306</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004133969894122887</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7875036014708549</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>7.094523247138589</v>
-      </c>
-      <c r="M57" t="n">
-        <v>1.077709951796361</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-7.094523247138589</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>6125808069.136882</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001895527548291204</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4.049933232017574</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.7871901345563056</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-4.049933232017574</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>7124526973.145388</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004154644865181866</v>
       </c>
       <c r="G59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>5.06265994789168</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8962558327596837</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-5.06265994789168</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4761759682.51895</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.004233797094786119</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4.978407672854038</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8421505398182395</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-4.978407672854038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6148575536.761674</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.005030941508208925</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734925</v>
-      </c>
-      <c r="L61" t="n">
-        <v>4.869903811389222</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9205950410919796</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-4.869903811389222</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>5568119568.773475</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003086867386018985</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.9858611408691828</v>
-      </c>
-      <c r="N62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>6626488027.207013</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.004806744802340086</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>7.099243623042296</v>
-      </c>
-      <c r="M63" t="n">
-        <v>-0.3162277660168379</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-7.099243623042296</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>4341525181.878624</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.003937239509641907</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>7.09648999218007</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9404589946126485</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-7.09648999218007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>1</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>4872083852.125639</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.005659587092159816</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2482598995253994</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>7.5876220233005</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.6700014836986455</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-7.5876220233005</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>4430884020.67213</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002535772885005964</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>4</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.696467341763726</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.7913698411326548</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.696467341763726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6661087588.382652</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.003695540766426547</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>7.225110731681479</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9236399687475453</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-7.225110731681479</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>7548094069.859307</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.00312349845549408</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>4.967089787824031</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7516627034706208</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-4.967089787824031</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4425939087.799607</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0008559335724904231</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5.1732075716262</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9593347755053631</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-5.1732075716262</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>6428275310.815427</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003247226520439738</v>
       </c>
       <c r="G70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7.953724681986983</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9315266386879324</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-7.953724681986983</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>4582307586.618439</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002676653973577644</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>7.090137172310254</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8481396442610138</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-7.090137172310254</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>7815894567.25917</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.002134893607922541</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>1.147518106416813</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8120486363.383156</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001149167963440355</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>7.118411525675478</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9965697132186523</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-7.118411525675478</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4747392827.633277</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004340954635529243</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.8983271086625326</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>7.073185820757141</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.209943274923856</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-7.073185820757141</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7468272702.743985</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003834960827057505</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>4</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.916331632727014</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.74327880166985</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.096448488650535</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.74327880166985</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>6314533987.939361</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.001850488618230264</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.04939848478809002</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>4.287268482357621</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.4510110359836321</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-4.287268482357621</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>5990701844.453995</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.004270799402012468</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>5.139943449060359</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.9647662865795777</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-5.139943449060359</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6803743573.295924</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004490836761269138</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>2</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>5.136994860984152</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9283312257081735</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-5.136994860984152</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>6764459834.366702</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002236250456960723</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.121197089501893</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.8835215118109802</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.121197089501893</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>5915432086.609099</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003105005283679065</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.1960057105972325</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330155</v>
-      </c>
-      <c r="L80" t="n">
-        <v>4.495265310348745</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.3379431573053511</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-4.495265310348745</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>7788329416.423165</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005087259600763152</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>7.063206909815964</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.998664860599068</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-7.063206909815964</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>5334299586.961482</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004136134546316284</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>7.216141704045893</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.9635125223367094</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-7.216141704045893</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8490936004.021441</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.002665110224377483</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.8742932776269304</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>7.06714698653378</v>
-      </c>
-      <c r="M83" t="n">
-        <v>1.18700059911282</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-7.06714698653378</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>5822358110.507661</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.00384683751019653</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1192939505159994</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>5.073587621740023</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.2150916519087853</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-5.073587621740023</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>3803221503.254905</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003572714152252505</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>2</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>5.040932939695641</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.9361783758141988</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-5.040932939695641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>9000253795.818481</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002474176688907667</v>
       </c>
       <c r="G86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="L86" t="n">
-        <v>5.363961008368014</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.999874547538968</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-5.363961008368014</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>4357402807.557741</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.00152779707545366</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>4</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.246938946402482</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.645250819069913</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.3784121365061101</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.645250819069913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9317035084.768509</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.004047625904876274</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>2</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>5.033726920183643</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8483326634892556</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-5.033726920183643</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>5524363260.069953</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.00502503358191394</v>
       </c>
       <c r="G89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>4.303567834791552</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.8917630562823464</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-4.303567834791552</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6138264775.624445</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003299857842810041</v>
       </c>
       <c r="G90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>5.029779368412599</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9439602947472858</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-5.029779368412599</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5618309810.237166</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004794099941549175</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>1</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>7.00430648774418</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8506004741697762</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-7.00430648774418</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>6</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>5167137408.341511</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.004080828287161829</v>
       </c>
       <c r="G92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>4.271647108328802</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.9905882925736155</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-4.271647108328802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>7214658556.596613</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001608124035729394</v>
       </c>
       <c r="G93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>2</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>5.117612652296315</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9350613862719317</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-5.117612652296315</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>7329261013.923181</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001262069796917169</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.092464482296922</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7898838998.801373</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002605459141504699</v>
       </c>
       <c r="G95" t="b">
         <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>5.034339275033856</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9101408576147144</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-5.034339275033856</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8304097287.769556</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003338227514984098</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>7.187872140956293</v>
-      </c>
-      <c r="M96" t="n">
-        <v>1.007001859858239</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-7.187872140956293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>6</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>5431792450.359953</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005708167487263116</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>7.278157749611479</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9459988883579388</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-7.278157749611479</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>6402523159.99986</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004240974084369433</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>4.01473481701573</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8016607858947224</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-4.01473481701573</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -4972,39 +3196,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3213168626.215043</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.004014003105553905</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0</v>
-      </c>
-      <c r="M99" t="n">
-        <v>1.02331216053928</v>
-      </c>
-      <c r="N99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5807925542.204006</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003316590591875672</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>4.129849829617728</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.757419891833873</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-4.129849829617728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6237508783.247722</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001092743031169586</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.5558628398621216</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>4.482730815963752</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8460587740976988</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-4.482730815963752</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_10.xlsx
+++ b/output/fit_clients/fit_round_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>9205219017.127573</v>
+        <v>1624203549.08386</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004749530556825906</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+        <v>0.08770347542100504</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.04507710937098994</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>812101719.1497532</v>
       </c>
     </row>
     <row r="3">
@@ -511,19 +527,25 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>4450244664.763544</v>
+        <v>2154611206.557878</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004098396508201373</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+        <v>0.1778351163959104</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03569517691732053</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1077305666.862847</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>529</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4248540979.375724</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1519261432301705</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.02961960490533304</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
-        <v>534</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6214473409.208067</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.002468700391364431</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
+      <c r="J4" t="n">
+        <v>2124270521.051378</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4565063954.740121</v>
+        <v>4105890084.078536</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004008402328984777</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09213741991412372</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04278294025547215</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>4</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2052945038.339717</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>5876055724.120537</v>
+        <v>2569696408.036535</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002279613053305974</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+        <v>0.101116935653041</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04613056741928537</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1284848171.520971</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6211855869.181492</v>
+        <v>2994178537.328415</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001254143168495327</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
+        <v>0.08694028488676014</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03651918858407185</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1497089233.19452</v>
       </c>
     </row>
     <row r="8">
@@ -651,19 +697,25 @@
         <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7000026855.324183</v>
+        <v>3420466336.778533</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003027157283560963</v>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
+        <v>0.2189302876858892</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.03320292967176465</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1710233268.495208</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6709229398.526009</v>
+        <v>1528399491.680024</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005205778050781016</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
+        <v>0.1461102811148669</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02778628983816839</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>764199837.3719579</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3026545465.430573</v>
+        <v>3726702062.259007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.005563252522928021</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.2138360592554341</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0382921204829182</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1863351031.499266</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>566</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4276230111.762715</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.1637585792329802</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04047266637891582</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
-        <v>582</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4244601049.015968</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.00121602426705872</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+      <c r="J11" t="n">
+        <v>2138115087.441277</v>
       </c>
     </row>
     <row r="12">
@@ -763,19 +833,25 @@
         <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>7435600202.558536</v>
+        <v>2036203196.468822</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001888840728341123</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
+        <v>0.1687024048505576</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.05131757582443566</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1018101527.340803</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5522062134.002266</v>
+        <v>3558560710.857904</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003652988577450805</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
+        <v>0.07551174901678238</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02531670938822182</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1779280432.368713</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>5567117543.419747</v>
+        <v>3580043707.278227</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002862213608909744</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
+        <v>0.1881849058973743</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03781023058982653</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1790021845.621298</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6208556610.781385</v>
+        <v>1276082140.699558</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003466078553330711</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
+        <v>0.1055008808587115</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03899001430303119</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>638041104.5793656</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7604243617.30702</v>
+        <v>2119586584.438161</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003421112718106742</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
+        <v>0.107117909130352</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03496658536109827</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1059793356.665457</v>
       </c>
     </row>
     <row r="17">
@@ -903,19 +1003,25 @@
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>6301440201.216585</v>
+        <v>4475062252.441322</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00223571372792002</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
+        <v>0.1411298420019556</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04507521712788003</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2237531136.914077</v>
       </c>
     </row>
     <row r="18">
@@ -931,19 +1037,25 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4493803407.078177</v>
+        <v>3298786392.949146</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0008360567586408719</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
+        <v>0.131457586785557</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02360412957595564</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1649393204.673597</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3460483485.268477</v>
+        <v>1283523457.408054</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002061063720058434</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1284797777981631</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02680957431086903</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>641761826.4605254</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>4777784019.041655</v>
+        <v>1721740418.985252</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001183162930695747</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1267148479572784</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.03134447759256766</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>860870265.0213028</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6050869960.686832</v>
+        <v>1912106969.384408</v>
       </c>
       <c r="F21" t="n">
-        <v>0.005803656603411803</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
+        <v>0.1014245531603029</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03806586050126279</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>956053528.6411893</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4321967384.192607</v>
+        <v>3035155063.751076</v>
       </c>
       <c r="F22" t="n">
-        <v>0.00399456194376724</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
+        <v>0.1253533433145805</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05137919472925189</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1517577590.919421</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7267901652.768817</v>
+        <v>1136441301.542507</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001245385173826814</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
+        <v>0.1776969920027728</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04180798911705224</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>568220697.4413496</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>5853390655.381192</v>
+        <v>2660365002.376456</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004634053113076457</v>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
+        <v>0.124958917753759</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02332017347313193</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1330182558.874142</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>4569849162.644522</v>
+        <v>1253737615.333192</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003458596528038068</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
+        <v>0.08248786058765405</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02044907978552061</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>626868812.7712276</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5667939442.861292</v>
+        <v>1280130543.021556</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001046125228959577</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1059066562169954</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.02931286216612853</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>640065311.7882537</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>8226205359.253479</v>
+        <v>3921838479.205155</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003183503939196117</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
+        <v>0.1414155520452256</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02467004666970193</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1960919253.216045</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>7850609098.913702</v>
+        <v>2941666005.315691</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004170766126604095</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
+        <v>0.1207240385365643</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03638296475248654</v>
+      </c>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1470833008.398029</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>7933436157.679351</v>
+        <v>4122781301.719852</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001218481643444238</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
+        <v>0.102153834852712</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.03597390350632163</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2061390658.897091</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>7855883844.358722</v>
+        <v>1753979394.772557</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003666968554763858</v>
-      </c>
-      <c r="G30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
+        <v>0.097597491115816</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0368307014139394</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>876989706.4530096</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>6483768093.3214</v>
+        <v>1235394067.195374</v>
       </c>
       <c r="F31" t="n">
-        <v>0.002698877109747037</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>2</v>
+        <v>0.1078212391614508</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0424703331972142</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>617696976.3196138</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4824971464.011333</v>
+        <v>1339385440.331659</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001413396704862315</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1138775332571457</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02816991559553168</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>669692754.8902789</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>5229149198.547021</v>
+        <v>1945541418.214652</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002614972443304861</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
+        <v>0.1547267356538153</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04943836291774304</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" t="n">
+        <v>972770794.102854</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6209615492.460936</v>
+        <v>1185353242.179462</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004501140159871899</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
+        <v>0.08248339035905622</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02231147476729045</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>592676628.2105745</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5960949342.92162</v>
+        <v>926828944.812561</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002014099001993883</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
+        <v>0.08769115406846535</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.02810945830633543</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>463414506.6947537</v>
       </c>
     </row>
     <row r="36">
@@ -1435,19 +1649,25 @@
         <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>8094284976.875489</v>
+        <v>2808946646.965471</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002836854193120881</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>3</v>
+        <v>0.1649412018914203</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.01785919704087653</v>
+      </c>
+      <c r="H36" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1404473320.278237</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4154783487.002206</v>
+        <v>2253099636.739521</v>
       </c>
       <c r="F37" t="n">
-        <v>0.003693705988956858</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
+        <v>0.1004551780089091</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03697696295611048</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1126549880.082913</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>4222909432.625401</v>
+        <v>1699622998.140334</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004495657036250115</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.08759323325028535</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02754086181316553</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>849811519.7154988</v>
       </c>
     </row>
     <row r="39">
@@ -1519,19 +1751,25 @@
         <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4019292565.893903</v>
+        <v>1844405617.133378</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002229798060677453</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
+        <v>0.1725112746631038</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02586142268876004</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>922202826.3268836</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>7071349680.553439</v>
+        <v>1383395117.193045</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004385871450609449</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>3</v>
+        <v>0.1605714913749516</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03715677336946348</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>691697553.587905</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6062139547.526464</v>
+        <v>2872319679.071529</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001350087572685126</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
+        <v>0.1262884079650104</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04143827567943541</v>
+      </c>
+      <c r="H41" t="b">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1436159828.005378</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5751386785.366358</v>
+        <v>3144669532.569158</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005246128672380153</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
+        <v>0.09769882420533441</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03898875210001685</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1572334736.169191</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6528823266.397136</v>
+        <v>2033142605.607808</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00397509517333704</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
+        <v>0.1454555378000413</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02291517860111204</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1016571397.849987</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>6591674273.368657</v>
+        <v>1457160253.277082</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00193974398437807</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>3</v>
+        <v>0.1011885316924344</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03093392214769109</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>728580124.3578576</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>4758547671.116228</v>
+        <v>2485409016.121613</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001490883014088305</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>2</v>
+        <v>0.1373972795421133</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04452895282942538</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1242704547.447955</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>7337294961.852165</v>
+        <v>5698610238.670053</v>
       </c>
       <c r="F46" t="n">
-        <v>0.004841178556623417</v>
-      </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
+        <v>0.1189125643403249</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.03945037349439896</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2849305185.561624</v>
       </c>
     </row>
     <row r="47">
@@ -1743,19 +2023,25 @@
         <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8959920211.356771</v>
+        <v>5193949518.596924</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002121534944330397</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
+        <v>0.1350292629373221</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.04271550747726396</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2596974825.726771</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>3</v>
+      </c>
+      <c r="D48" t="n">
+        <v>502</v>
+      </c>
+      <c r="E48" t="n">
+        <v>4095685353.945471</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.1022601183804224</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.03586701791360429</v>
+      </c>
+      <c r="H48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="n">
-        <v>431</v>
-      </c>
-      <c r="E48" t="n">
-        <v>6185357637.195489</v>
-      </c>
-      <c r="F48" t="n">
-        <v>0.002673854834605669</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>2</v>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2047842705.320125</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4888338463.528382</v>
+        <v>1394302373.220245</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005084288223131068</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
+        <v>0.1410274387975041</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03521179395356749</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>697151234.6662984</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>8153780469.17154</v>
+        <v>2597475069.729863</v>
       </c>
       <c r="F50" t="n">
-        <v>0.003949624643991008</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3</v>
+        <v>0.1544397647889947</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.05338477643363179</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1298737623.018418</v>
       </c>
     </row>
     <row r="51">
@@ -1855,19 +2159,25 @@
         <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5448852257.90541</v>
+        <v>1383392331.479609</v>
       </c>
       <c r="F51" t="n">
-        <v>0.003948392544190395</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1750372770783578</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.03473403786888461</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>691696187.1859964</v>
       </c>
     </row>
     <row r="52">
@@ -1883,19 +2193,25 @@
         <v>4</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6783554431.262746</v>
+        <v>4002273321.13576</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001458625563374545</v>
-      </c>
-      <c r="G52" t="b">
+        <v>0.1265979732277685</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.04788797508551345</v>
+      </c>
+      <c r="H52" t="b">
         <v>1</v>
       </c>
-      <c r="H52" t="n">
-        <v>2</v>
+      <c r="I52" t="n">
+        <v>4</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2001136716.499197</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>4704690068.949093</v>
+        <v>2439336667.116266</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002996839452205309</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
+        <v>0.1377737019405429</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03323462208061233</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1219668404.281776</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5231387058.229871</v>
+        <v>3788777398.733469</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005053085637780388</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3</v>
+        <v>0.1408188873804488</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04366501460487377</v>
+      </c>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1894388746.437603</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
+        <v>3</v>
+      </c>
+      <c r="D55" t="n">
+        <v>446</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3885849308.25351</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.2213172167410426</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02469567688808853</v>
+      </c>
+      <c r="H55" t="b">
         <v>1</v>
       </c>
-      <c r="D55" t="n">
-        <v>568</v>
-      </c>
-      <c r="E55" t="n">
-        <v>5740028153.814839</v>
-      </c>
-      <c r="F55" t="n">
-        <v>0.003060139489053899</v>
-      </c>
-      <c r="G55" t="b">
-        <v>0</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3</v>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1942924623.591114</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>5622501227.346283</v>
+        <v>1882552008.378406</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002979350805452635</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
+        <v>0.1030104372634894</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05752305620344551</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>941275989.5241704</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7447937736.102306</v>
+        <v>3562263546.547318</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004133969894122887</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
+        <v>0.1171327150698899</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.01749763142801316</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1781131824.495093</v>
       </c>
     </row>
     <row r="58">
@@ -2051,19 +2397,25 @@
         <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>6125808069.136882</v>
+        <v>1278726259.944978</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001895527548291204</v>
-      </c>
-      <c r="G58" t="b">
-        <v>1</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
+        <v>0.1829356611045422</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.03810614164771377</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>639363180.812444</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>7124526973.145388</v>
+        <v>4445787095.123974</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004154644865181866</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
+        <v>0.1131863305286347</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04120761946802575</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2222893501.632495</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4761759682.51895</v>
+        <v>2487240048.06965</v>
       </c>
       <c r="F60" t="n">
-        <v>0.004233797094786119</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1679139898223986</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02689408080150894</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1243620040.276502</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2496,28 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6148575536.761674</v>
+        <v>2338918082.604768</v>
       </c>
       <c r="F61" t="n">
-        <v>0.005030941508208925</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2</v>
+        <v>0.1543810076515272</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03104773778390429</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1169459083.801207</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>5568119568.773475</v>
+        <v>2115223709.155643</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003086867386018985</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
+        <v>0.1408894390549873</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03105172571633271</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1057611929.571341</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>6626488027.207013</v>
+        <v>4658627254.596814</v>
       </c>
       <c r="F63" t="n">
-        <v>0.004806744802340086</v>
-      </c>
-      <c r="G63" t="b">
-        <v>1</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2</v>
+        <v>0.1000278995145104</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03345667241792268</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2329313659.908215</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4341525181.878624</v>
+        <v>4236498040.751859</v>
       </c>
       <c r="F64" t="n">
-        <v>0.003937239509641907</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1289751013544534</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02273292074563283</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2118249072.492072</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4872083852.125639</v>
+        <v>5489153383.00544</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005659587092159816</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2</v>
+        <v>0.151215446221528</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02316829620555812</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>4</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2744576620.707499</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4430884020.67213</v>
+        <v>3688502857.343157</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002535772885005964</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
+        <v>0.1323896881664288</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.04087516896080471</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>3</v>
+      </c>
+      <c r="J66" t="n">
+        <v>1844251384.806231</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6661087588.382652</v>
+        <v>3281278582.32675</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003695540766426547</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
+        <v>0.09424027441746705</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04111164306565058</v>
+      </c>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1640639285.200441</v>
       </c>
     </row>
     <row r="68">
@@ -2331,19 +2737,25 @@
         <v>2</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>7548094069.859307</v>
+        <v>4259273743.90664</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00312349845549408</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
+        <v>0.1452082229429733</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04021958971739376</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2129636883.100221</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4425939087.799607</v>
+        <v>2203636924.092876</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0008559335724904231</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
+        <v>0.150838719558818</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05732276558038036</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1101818492.844838</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>6428275310.815427</v>
+        <v>2716033104.047594</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003247226520439738</v>
-      </c>
-      <c r="G70" t="b">
+        <v>0.09030977072344064</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.04362970693101811</v>
+      </c>
+      <c r="H70" t="b">
         <v>1</v>
       </c>
-      <c r="H70" t="n">
-        <v>2</v>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1358016510.125303</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4582307586.618439</v>
+        <v>4260563909.710549</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002676653973577644</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1500665805199236</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.03134713201353378</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>4</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2130282004.985837</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>7815894567.25917</v>
+        <v>2136463444.209718</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002134893607922541</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
+        <v>0.1027505280543906</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04034470598463636</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1068231646.014651</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>3</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>2973916494.516697</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.07744118368814316</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04718816562207732</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>4</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>8120486363.383156</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.001149167963440355</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
+      <c r="J73" t="n">
+        <v>1486958245.230335</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
+        <v>2</v>
+      </c>
+      <c r="D74" t="n">
+        <v>514</v>
+      </c>
+      <c r="E74" t="n">
+        <v>2870477131.722331</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.1578008651101265</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02277855233146382</v>
+      </c>
+      <c r="H74" t="b">
         <v>1</v>
       </c>
-      <c r="D74" t="n">
-        <v>520</v>
-      </c>
-      <c r="E74" t="n">
-        <v>4747392827.633277</v>
-      </c>
-      <c r="F74" t="n">
-        <v>0.004340954635529243</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1435238641.984324</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7468272702.743985</v>
+        <v>1574355774.097972</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003834960827057505</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
+        <v>0.1494572303770041</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03155988639201537</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>787177890.9099817</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>6314533987.939361</v>
+        <v>4409814755.721593</v>
       </c>
       <c r="F76" t="n">
-        <v>0.001850488618230264</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
+        <v>0.1193092642952157</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.03311205844242601</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2204907379.324903</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>5990701844.453995</v>
+        <v>2308610168.014124</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004270799402012468</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>4</v>
+        <v>0.1395391312046712</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0234006750383978</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1154305190.561548</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6803743573.295924</v>
+        <v>3904001892.530553</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004490836761269138</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>2</v>
+        <v>0.1246202390069209</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04124245956590835</v>
+      </c>
+      <c r="H78" t="b">
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1952000918.446835</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>6764459834.366702</v>
+        <v>1320053866.473867</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002236250456960723</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>2</v>
+        <v>0.1235823701443026</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03649198863791762</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>660026935.4093484</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5915432086.609099</v>
+        <v>5629445487.595969</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003105005283679065</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>3</v>
+        <v>0.09642183596845276</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03567277650813181</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2814722823.510518</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>7788329416.423165</v>
+        <v>4258363170.682403</v>
       </c>
       <c r="F81" t="n">
-        <v>0.005087259600763152</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>2</v>
+        <v>0.115953599900373</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02737783341412367</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2129181557.754371</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5334299586.961482</v>
+        <v>5083115905.535881</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004136134546316284</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
+        <v>0.1747365550046609</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.01965743776584616</v>
+      </c>
+      <c r="H82" t="b">
         <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2541557931.681911</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8490936004.021441</v>
+        <v>2136790149.794216</v>
       </c>
       <c r="F83" t="n">
-        <v>0.002665110224377483</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>3</v>
+        <v>0.1207561193530819</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.04036750479293348</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1068395076.813577</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>5822358110.507661</v>
+        <v>2053077114.741564</v>
       </c>
       <c r="F84" t="n">
-        <v>0.00384683751019653</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
+        <v>0.1170081449299753</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03405160147264912</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1026538554.187881</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3803221503.254905</v>
+        <v>2346769798.214396</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003572714152252505</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1684431359504021</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.04824861422821785</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1173384886.760288</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>9000253795.818481</v>
+        <v>1709565994.816173</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002474176688907667</v>
-      </c>
-      <c r="G86" t="b">
+        <v>0.1281550484649446</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02675133327700206</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>1</v>
       </c>
-      <c r="H86" t="n">
-        <v>3</v>
+      <c r="J86" t="n">
+        <v>854782984.2708361</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +3380,28 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>4357402807.557741</v>
+        <v>1336326024.720185</v>
       </c>
       <c r="F87" t="n">
-        <v>0.00152779707545366</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1753725415530042</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04070499544424842</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>668163102.4995672</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9317035084.768509</v>
+        <v>3568719768.021084</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004047625904876274</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>2</v>
+        <v>0.1117181127666199</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.03215046814248588</v>
+      </c>
+      <c r="H88" t="b">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1784359970.254821</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>5524363260.069953</v>
+        <v>2221769575.47649</v>
       </c>
       <c r="F89" t="n">
-        <v>0.00502503358191394</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>1</v>
+        <v>0.1000193246695844</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02564138133600658</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1110884882.514222</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6138264775.624445</v>
+        <v>2079009555.004132</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003299857842810041</v>
-      </c>
-      <c r="G90" t="b">
-        <v>1</v>
-      </c>
-      <c r="H90" t="n">
-        <v>1</v>
+        <v>0.083417528073081</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03447843131640379</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1039504861.728907</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5618309810.237166</v>
+        <v>1318357829.575446</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004794099941549175</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>3</v>
+        <v>0.1415235130670103</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.04135113766813352</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>659178977.5093831</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>5167137408.341511</v>
+        <v>2717876353.127485</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004080828287161829</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08507144852338414</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03996352444415581</v>
+      </c>
+      <c r="H92" t="b">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1358938176.448089</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>7214658556.596613</v>
+        <v>4307701568.490192</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001608124035729394</v>
-      </c>
-      <c r="G93" t="b">
-        <v>1</v>
-      </c>
-      <c r="H93" t="n">
-        <v>3</v>
+        <v>0.1124602688552134</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.03983046097466525</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2153850764.560965</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>7329261013.923181</v>
+        <v>1963130314.392871</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001262069796917169</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>3</v>
+        <v>0.1615197602283152</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.03961826275367088</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>981565150.3221442</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7898838998.801373</v>
+        <v>3049621812.418098</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002605459141504699</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>2</v>
+        <v>0.1355264649687556</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.03902273755170706</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1524810901.931216</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8304097287.769556</v>
+        <v>1592152980.471795</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003338227514984098</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>3</v>
+        <v>0.1297591660651359</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03994979566727671</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>796076520.2219105</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3720,28 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5431792450.359953</v>
+        <v>4466192633.384397</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005708167487263116</v>
-      </c>
-      <c r="G97" t="b">
-        <v>0</v>
-      </c>
-      <c r="H97" t="n">
-        <v>3</v>
+        <v>0.1459304601983586</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02060484527652919</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2233096410.118355</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>6402523159.99986</v>
+        <v>2722928885.56657</v>
       </c>
       <c r="F98" t="n">
-        <v>0.004240974084369433</v>
-      </c>
-      <c r="G98" t="b">
-        <v>0</v>
-      </c>
-      <c r="H98" t="n">
-        <v>4</v>
+        <v>0.09522272255687203</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02641179129484956</v>
+      </c>
+      <c r="H98" t="b">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1361464408.199684</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3213168626.215043</v>
+        <v>3286484475.371966</v>
       </c>
       <c r="F99" t="n">
-        <v>0.004014003105553905</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1245562335809718</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.02371307160099943</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1643242244.039636</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5807925542.204006</v>
+        <v>4460954655.023165</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003316590591875672</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
+        <v>0.1214152407734548</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01704091824436589</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2230477434.470627</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6237508783.247722</v>
+        <v>2252088094.32467</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001092743031169586</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>2</v>
+        <v>0.1683408452478597</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.04119865871241247</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>4</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1126044036.934422</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_10.xlsx
+++ b/output/fit_clients/fit_round_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1624203549.08386</v>
+        <v>2106070629.807096</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08770347542100504</v>
+        <v>0.1000574538696039</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04507710937098994</v>
+        <v>0.04185151867894138</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>812101719.1497532</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2154611206.557878</v>
+        <v>1595549674.167208</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1778351163959104</v>
+        <v>0.1798915851094339</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03569517691732053</v>
+        <v>0.0353482137477649</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1077305666.862847</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4248540979.375724</v>
+        <v>3934614179.840763</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1519261432301705</v>
+        <v>0.112048745682582</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02961960490533304</v>
+        <v>0.02828143135989804</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2124270521.051378</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4105890084.078536</v>
+        <v>2636304792.07907</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09213741991412372</v>
+        <v>0.0880136854109884</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04278294025547215</v>
+        <v>0.03738498033782743</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>4</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2052945038.339717</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2569696408.036535</v>
+        <v>1929219894.047868</v>
       </c>
       <c r="F6" t="n">
-        <v>0.101116935653041</v>
+        <v>0.104923834691182</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04613056741928537</v>
+        <v>0.05102660586049775</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1284848171.520971</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2994178537.328415</v>
+        <v>2206032019.427381</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08694028488676014</v>
+        <v>0.09035958955392409</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03651918858407185</v>
+        <v>0.03811733147032306</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1497089233.19452</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3420466336.778533</v>
+        <v>3199990564.443014</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2189302876858892</v>
+        <v>0.2190778818996551</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03320292967176465</v>
+        <v>0.02047833913228457</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1710233268.495208</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1528399491.680024</v>
+        <v>2100069122.239306</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1461102811148669</v>
+        <v>0.1739062961930826</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02778628983816839</v>
+        <v>0.0248326808903627</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>764199837.3719579</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3726702062.259007</v>
+        <v>4712097248.301113</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2138360592554341</v>
+        <v>0.1666931430508364</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0382921204829182</v>
+        <v>0.05390235833146294</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>4</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1863351031.499266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4276230111.762715</v>
+        <v>4272450811.868304</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1637585792329802</v>
+        <v>0.1386194789760674</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04047266637891582</v>
+        <v>0.04289535269981585</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2138115087.441277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2036203196.468822</v>
+        <v>3088636072.394543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1687024048505576</v>
+        <v>0.1562046681970746</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05131757582443566</v>
+        <v>0.04034396423790101</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1018101527.340803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3558560710.857904</v>
+        <v>3822637171.377718</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07551174901678238</v>
+        <v>0.06221540967741594</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02531670938822182</v>
+        <v>0.02965616747463744</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1779280432.368713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3580043707.278227</v>
+        <v>2780600389.542766</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1881849058973743</v>
+        <v>0.1883176123455605</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03781023058982653</v>
+        <v>0.03245921420226687</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1790021845.621298</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1276082140.699558</v>
+        <v>1626775915.583223</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1055008808587115</v>
+        <v>0.09535709481572913</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03899001430303119</v>
+        <v>0.04266964829461028</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>638041104.5793656</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2119586584.438161</v>
+        <v>1948375786.456735</v>
       </c>
       <c r="F16" t="n">
-        <v>0.107117909130352</v>
+        <v>0.1037971256210722</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03496658536109827</v>
+        <v>0.0486356814802481</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1059793356.665457</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4475062252.441322</v>
+        <v>4603781039.398767</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1411298420019556</v>
+        <v>0.1380260102800673</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04507521712788003</v>
+        <v>0.04664912315854721</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2237531136.914077</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3298786392.949146</v>
+        <v>3666336965.80203</v>
       </c>
       <c r="F18" t="n">
-        <v>0.131457586785557</v>
+        <v>0.1577622213433857</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02360412957595564</v>
+        <v>0.02253992676721926</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1649393204.673597</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1283523457.408054</v>
+        <v>1110013470.673685</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1284797777981631</v>
+        <v>0.1616291814906146</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02680957431086903</v>
+        <v>0.01696407916269014</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>641761826.4605254</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1721740418.985252</v>
+        <v>1791655682.719639</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1267148479572784</v>
+        <v>0.1010398623163328</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03134447759256766</v>
+        <v>0.02293341674076078</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>860870265.0213028</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1912106969.384408</v>
+        <v>1758370917.003111</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1014245531603029</v>
+        <v>0.08464506607112691</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03806586050126279</v>
+        <v>0.02877314086960858</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>956053528.6411893</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3035155063.751076</v>
+        <v>2604804388.232786</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1253533433145805</v>
+        <v>0.1200068486818625</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05137919472925189</v>
+        <v>0.0359509918260851</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1517577590.919421</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1136441301.542507</v>
+        <v>943071044.9555231</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1776969920027728</v>
+        <v>0.1600798496487704</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04180798911705224</v>
+        <v>0.03753966464503392</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>568220697.4413496</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2660365002.376456</v>
+        <v>3940674438.54731</v>
       </c>
       <c r="F24" t="n">
-        <v>0.124958917753759</v>
+        <v>0.1202381791752248</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02332017347313193</v>
+        <v>0.03518789272257208</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1330182558.874142</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1253737615.333192</v>
+        <v>1485038046.060159</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08248786058765405</v>
+        <v>0.1194062566794314</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02044907978552061</v>
+        <v>0.02533932907514349</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>626868812.7712276</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1280130543.021556</v>
+        <v>1447142140.229183</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1059066562169954</v>
+        <v>0.08357290967271883</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02931286216612853</v>
+        <v>0.02602737126048429</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>640065311.7882537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3921838479.205155</v>
+        <v>4255238480.286821</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1414155520452256</v>
+        <v>0.0973464292888313</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02467004666970193</v>
+        <v>0.02377669232130424</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1960919253.216045</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2941666005.315691</v>
+        <v>2476363646.169101</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1207240385365643</v>
+        <v>0.09570017171822459</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03638296475248654</v>
+        <v>0.03637305224858937</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1470833008.398029</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4122781301.719852</v>
+        <v>5507668236.546705</v>
       </c>
       <c r="F29" t="n">
-        <v>0.102153834852712</v>
+        <v>0.1187196523897883</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03597390350632163</v>
+        <v>0.04423043133372494</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>4</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2061390658.897091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1753979394.772557</v>
+        <v>1530185110.488765</v>
       </c>
       <c r="F30" t="n">
-        <v>0.097597491115816</v>
+        <v>0.09994076160844532</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0368307014139394</v>
+        <v>0.03601764367214279</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>876989706.4530096</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1235394067.195374</v>
+        <v>1190340072.287548</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1078212391614508</v>
+        <v>0.08976041516219251</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0424703331972142</v>
+        <v>0.03264917598103245</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>617696976.3196138</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1339385440.331659</v>
+        <v>1659277762.71469</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1138775332571457</v>
+        <v>0.1057166414720445</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02816991559553168</v>
+        <v>0.02352189637415095</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>669692754.8902789</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1945541418.214652</v>
+        <v>2177272595.966483</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1547267356538153</v>
+        <v>0.1835170172218785</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04943836291774304</v>
+        <v>0.04783686484541618</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>972770794.102854</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1185353242.179462</v>
+        <v>1368256657.360699</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08248339035905622</v>
+        <v>0.1062332345942284</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02231147476729045</v>
+        <v>0.02070831064176369</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>592676628.2105745</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>926828944.812561</v>
+        <v>1108187597.369154</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08769115406846535</v>
+        <v>0.1105907396114645</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02810945830633543</v>
+        <v>0.03062704331446796</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>463414506.6947537</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2808946646.965471</v>
+        <v>2070973378.881366</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1649412018914203</v>
+        <v>0.1522692599629946</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01785919704087653</v>
+        <v>0.02368862048034354</v>
       </c>
       <c r="H36" t="b">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1404473320.278237</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2253099636.739521</v>
+        <v>2333828596.298582</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1004551780089091</v>
+        <v>0.06859528982391166</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03697696295611048</v>
+        <v>0.02832328660991646</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1126549880.082913</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1699622998.140334</v>
+        <v>1994127956.192549</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08759323325028535</v>
+        <v>0.113281806958396</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02754086181316553</v>
+        <v>0.0338835749709676</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>849811519.7154988</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1844405617.133378</v>
+        <v>1604198975.252665</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1725112746631038</v>
+        <v>0.147891737096718</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02586142268876004</v>
+        <v>0.0323944711068577</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>922202826.3268836</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1383395117.193045</v>
+        <v>1661786489.470874</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1605714913749516</v>
+        <v>0.09904244535031952</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03715677336946348</v>
+        <v>0.05757776385648392</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>691697553.587905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2872319679.071529</v>
+        <v>2772604274.140323</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1262884079650104</v>
+        <v>0.1136641592628597</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04143827567943541</v>
+        <v>0.04569791825583881</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1436159828.005378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3144669532.569158</v>
+        <v>3325062963.641913</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09769882420533441</v>
+        <v>0.08719247123604974</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03898875210001685</v>
+        <v>0.04474360475817524</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1572334736.169191</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2033142605.607808</v>
+        <v>2862526267.945188</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1454555378000413</v>
+        <v>0.143213834768774</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02291517860111204</v>
+        <v>0.02388022417372808</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1016571397.849987</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1457160253.277082</v>
+        <v>1992650312.737247</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1011885316924344</v>
+        <v>0.09556713276712291</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03093392214769109</v>
+        <v>0.02661590022226231</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>728580124.3578576</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2485409016.121613</v>
+        <v>1568470801.506484</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1373972795421133</v>
+        <v>0.1824020853893546</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04452895282942538</v>
+        <v>0.04543588422957749</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1242704547.447955</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5698610238.670053</v>
+        <v>3499434758.714281</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1189125643403249</v>
+        <v>0.1122103610240094</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03945037349439896</v>
+        <v>0.04002934501107722</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2849305185.561624</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5193949518.596924</v>
+        <v>4435921659.480852</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1350292629373221</v>
+        <v>0.1895100633193929</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04271550747726396</v>
+        <v>0.05055996859690506</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2596974825.726771</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4095685353.945471</v>
+        <v>4173705728.371109</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1022601183804224</v>
+        <v>0.09309559228143273</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03586701791360429</v>
+        <v>0.02650911801085393</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2047842705.320125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1394302373.220245</v>
+        <v>1203490387.886225</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1410274387975041</v>
+        <v>0.1215712292411208</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03521179395356749</v>
+        <v>0.03419964137894158</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>697151234.6662984</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2597475069.729863</v>
+        <v>2563719198.990979</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1544397647889947</v>
+        <v>0.1349444760334096</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05338477643363179</v>
+        <v>0.04446411553251696</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1298737623.018418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1383392331.479609</v>
+        <v>1302066600.960773</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1750372770783578</v>
+        <v>0.1443784248315008</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03473403786888461</v>
+        <v>0.04061886169210168</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>691696187.1859964</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4002273321.13576</v>
+        <v>3797415124.695505</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1265979732277685</v>
+        <v>0.1109217360094207</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04788797508551345</v>
+        <v>0.0437829547427271</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2001136716.499197</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2439336667.116266</v>
+        <v>3662021771.021774</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1377737019405429</v>
+        <v>0.1810977714148881</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03323462208061233</v>
+        <v>0.02388221333427218</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1219668404.281776</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3788777398.733469</v>
+        <v>4432829888.178024</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1408188873804488</v>
+        <v>0.1597674416884811</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04366501460487377</v>
+        <v>0.04415966861205205</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1894388746.437603</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3885849308.25351</v>
+        <v>4057437864.005463</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2213172167410426</v>
+        <v>0.1688016329080615</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02469567688808853</v>
+        <v>0.02705531023328866</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1942924623.591114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1882552008.378406</v>
+        <v>1171416960.736729</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1030104372634894</v>
+        <v>0.1140598580936804</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05752305620344551</v>
+        <v>0.04222900690007782</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>941275989.5241704</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3562263546.547318</v>
+        <v>3323183939.241036</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1171327150698899</v>
+        <v>0.1346127060392888</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01749763142801316</v>
+        <v>0.02683312919493953</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1781131824.495093</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1278726259.944978</v>
+        <v>1653387883.222009</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1829356611045422</v>
+        <v>0.1564327897431688</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03810614164771377</v>
+        <v>0.02921140845557853</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>639363180.812444</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4445787095.123974</v>
+        <v>4785415542.759902</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1131863305286347</v>
+        <v>0.1056734642984045</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04120761946802575</v>
+        <v>0.03947945820386149</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2222893501.632495</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2487240048.06965</v>
+        <v>3162581712.531836</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1679139898223986</v>
+        <v>0.1961504165539779</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02689408080150894</v>
+        <v>0.03261070937791583</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1243620040.276502</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2338918082.604768</v>
+        <v>2618234660.557937</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1543810076515272</v>
+        <v>0.1470726832006776</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03104773778390429</v>
+        <v>0.03227522742675953</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1169459083.801207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2115223709.155643</v>
+        <v>1484546445.2236</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1408894390549873</v>
+        <v>0.1199657478256441</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03105172571633271</v>
+        <v>0.047374413622143</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1057611929.571341</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4658627254.596814</v>
+        <v>5177089892.408806</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1000278995145104</v>
+        <v>0.1068561494160632</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03345667241792268</v>
+        <v>0.04186617799190792</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2329313659.908215</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4236498040.751859</v>
+        <v>4848000772.656769</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1289751013544534</v>
+        <v>0.1818692264316764</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02273292074563283</v>
+        <v>0.02242358281203023</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2118249072.492072</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5489153383.00544</v>
+        <v>4591192103.789783</v>
       </c>
       <c r="F65" t="n">
-        <v>0.151215446221528</v>
+        <v>0.1372894136757075</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02316829620555812</v>
+        <v>0.02079553098361233</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2744576620.707499</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3688502857.343157</v>
+        <v>4150041636.104907</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1323896881664288</v>
+        <v>0.1097074929316377</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04087516896080471</v>
+        <v>0.04232489586038366</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1844251384.806231</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3281278582.32675</v>
+        <v>2683053081.348147</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09424027441746705</v>
+        <v>0.08215464530587971</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04111164306565058</v>
+        <v>0.05050173667238798</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1640639285.200441</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4259273743.90664</v>
+        <v>4935952964.139359</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1452082229429733</v>
+        <v>0.158965885710393</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04021958971739376</v>
+        <v>0.03462300162328453</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2129636883.100221</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2203636924.092876</v>
+        <v>2291861267.461424</v>
       </c>
       <c r="F69" t="n">
-        <v>0.150838719558818</v>
+        <v>0.1398753246035635</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05732276558038036</v>
+        <v>0.04159848391850481</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1101818492.844838</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2716033104.047594</v>
+        <v>3721099710.768401</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09030977072344064</v>
+        <v>0.08871742285836388</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04362970693101811</v>
+        <v>0.03869205684918775</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1358016510.125303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4260563909.710549</v>
+        <v>4545006726.512682</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1500665805199236</v>
+        <v>0.1717158712405883</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03134713201353378</v>
+        <v>0.03284805065780457</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>4</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2130282004.985837</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2136463444.209718</v>
+        <v>1399575265.860777</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1027505280543906</v>
+        <v>0.09746029582504284</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04034470598463636</v>
+        <v>0.04120026146444806</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1068231646.014651</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2973916494.516697</v>
+        <v>3005285693.703907</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07744118368814316</v>
+        <v>0.0882586996873614</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04718816562207732</v>
+        <v>0.04860827314951306</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>4</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1486958245.230335</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2870477131.722331</v>
+        <v>3546534195.185147</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1578008651101265</v>
+        <v>0.1452577927992329</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02277855233146382</v>
+        <v>0.03077494688971538</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1435238641.984324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1574355774.097972</v>
+        <v>2464907426.440147</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1494572303770041</v>
+        <v>0.1625671058343553</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03155988639201537</v>
+        <v>0.02632953348000459</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>787177890.9099817</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4409814755.721593</v>
+        <v>3549497665.454023</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1193092642952157</v>
+        <v>0.1238119154091698</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03311205844242601</v>
+        <v>0.03093814149438929</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2204907379.324903</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2308610168.014124</v>
+        <v>2213791231.136153</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1395391312046712</v>
+        <v>0.1680996169823618</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0234006750383978</v>
+        <v>0.02547049685969158</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1154305190.561548</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3904001892.530553</v>
+        <v>3929249522.118822</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1246202390069209</v>
+        <v>0.09712046826266447</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04124245956590835</v>
+        <v>0.03911682294671237</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1952000918.446835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1320053866.473867</v>
+        <v>1726382751.618973</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1235823701443026</v>
+        <v>0.1353942496047763</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03649198863791762</v>
+        <v>0.02908765943151847</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>660026935.4093484</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5629445487.595969</v>
+        <v>5268721638.020836</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09642183596845276</v>
+        <v>0.07520875421412097</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03567277650813181</v>
+        <v>0.03833404465223603</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2814722823.510518</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4258363170.682403</v>
+        <v>4980038656.365096</v>
       </c>
       <c r="F81" t="n">
-        <v>0.115953599900373</v>
+        <v>0.1238814771840984</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02737783341412367</v>
+        <v>0.02843647808845196</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2129181557.754371</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5083115905.535881</v>
+        <v>5310801028.693477</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1747365550046609</v>
+        <v>0.1780895642903645</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01965743776584616</v>
+        <v>0.02788998441105235</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2541557931.681911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2136790149.794216</v>
+        <v>2004571714.972297</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1207561193530819</v>
+        <v>0.1256520892051034</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04036750479293348</v>
+        <v>0.02819729994215721</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1068395076.813577</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2053077114.741564</v>
+        <v>2521929365.216021</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1170081449299753</v>
+        <v>0.1164976202036191</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03405160147264912</v>
+        <v>0.04379772242064873</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1026538554.187881</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2346769798.214396</v>
+        <v>2658143687.174023</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1684431359504021</v>
+        <v>0.1398994607545391</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04824861422821785</v>
+        <v>0.0552133430064734</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1173384886.760288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1709565994.816173</v>
+        <v>1760254814.803136</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1281550484649446</v>
+        <v>0.1359130066738996</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02675133327700206</v>
+        <v>0.01898466929325473</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
-      <c r="J86" t="n">
-        <v>854782984.2708361</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1336326024.720185</v>
+        <v>936893364.9474066</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1753725415530042</v>
+        <v>0.1347416848765313</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04070499544424842</v>
+        <v>0.02942542148457862</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>668163102.4995672</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3568719768.021084</v>
+        <v>3112289114.592379</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1117181127666199</v>
+        <v>0.1343589325734537</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03215046814248588</v>
+        <v>0.02434310538742971</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1784359970.254821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2221769575.47649</v>
+        <v>2688167376.902989</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1000193246695844</v>
+        <v>0.1242910639853034</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02564138133600658</v>
+        <v>0.02622702344385744</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1110884882.514222</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2079009555.004132</v>
+        <v>2110931098.115826</v>
       </c>
       <c r="F90" t="n">
-        <v>0.083417528073081</v>
+        <v>0.09066862484284983</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03447843131640379</v>
+        <v>0.04290753711050491</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1039504861.728907</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1318357829.575446</v>
+        <v>2015310204.438146</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1415235130670103</v>
+        <v>0.1509109425824375</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04135113766813352</v>
+        <v>0.05163958285125053</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>659178977.5093831</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2717876353.127485</v>
+        <v>2867571169.957527</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08507144852338414</v>
+        <v>0.07597487401637013</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03996352444415581</v>
+        <v>0.04729217376429087</v>
       </c>
       <c r="H92" t="b">
         <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>1</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1358938176.448089</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4307701568.490192</v>
+        <v>3650513306.878531</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1124602688552134</v>
+        <v>0.1019285222075908</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03983046097466525</v>
+        <v>0.03528650877707109</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2153850764.560965</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1963130314.392871</v>
+        <v>2030587810.147868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1615197602283152</v>
+        <v>0.1344723909652547</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03961826275367088</v>
+        <v>0.03937626266733273</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>981565150.3221442</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3049621812.418098</v>
+        <v>3253443836.554805</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1355264649687556</v>
+        <v>0.1130973305812715</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03902273755170706</v>
+        <v>0.04090107986691592</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>2</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1524810901.931216</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1592152980.471795</v>
+        <v>1899601931.226503</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1297591660651359</v>
+        <v>0.1094887509579323</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03994979566727671</v>
+        <v>0.04302841853269783</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>796076520.2219105</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4466192633.384397</v>
+        <v>3698206814.159863</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1459304601983586</v>
+        <v>0.1139679176334203</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02060484527652919</v>
+        <v>0.02625616329680645</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2233096410.118355</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2722928885.56657</v>
+        <v>3668465913.051889</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09522272255687203</v>
+        <v>0.1117888187046692</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02641179129484956</v>
+        <v>0.03232095940222282</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>2</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1361464408.199684</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3286484475.371966</v>
+        <v>3226748461.367834</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1245562335809718</v>
+        <v>0.1145132746054705</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02371307160099943</v>
+        <v>0.02789823861514432</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1643242244.039636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4460954655.023165</v>
+        <v>4407156300.067461</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1214152407734548</v>
+        <v>0.1268713144869637</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01704091824436589</v>
+        <v>0.02472368644654216</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2230477434.470627</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2252088094.32467</v>
+        <v>2437478383.054851</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1683408452478597</v>
+        <v>0.1445565721705075</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04119865871241247</v>
+        <v>0.05531627834108569</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>4</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1126044036.934422</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_10.xlsx
+++ b/output/fit_clients/fit_round_10.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2106070629.807096</v>
+        <v>1628880786.484967</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1000574538696039</v>
+        <v>0.09861380307056404</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04185151867894138</v>
+        <v>0.02747613077954946</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1595549674.167208</v>
+        <v>2192615370.546421</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1798915851094339</v>
+        <v>0.1531995210813867</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0353482137477649</v>
+        <v>0.049674942964673</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3934614179.840763</v>
+        <v>3952866983.321013</v>
       </c>
       <c r="F4" t="n">
-        <v>0.112048745682582</v>
+        <v>0.1653789565298622</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02828143135989804</v>
+        <v>0.03076648766697989</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2636304792.07907</v>
+        <v>3118030168.948419</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0880136854109884</v>
+        <v>0.09800113633320642</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03738498033782743</v>
+        <v>0.0316870761841781</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1929219894.047868</v>
+        <v>2871482666.884054</v>
       </c>
       <c r="F6" t="n">
-        <v>0.104923834691182</v>
+        <v>0.129260365860546</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05102660586049775</v>
+        <v>0.04997818348019249</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2206032019.427381</v>
+        <v>2615607167.508602</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09035958955392409</v>
+        <v>0.09899712086342161</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03811733147032306</v>
+        <v>0.04894669175792708</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3199990564.443014</v>
+        <v>2957223314.851808</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2190778818996551</v>
+        <v>0.1843366813294922</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02047833913228457</v>
+        <v>0.02889583017948626</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2100069122.239306</v>
+        <v>2257723414.011096</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1739062961930826</v>
+        <v>0.1647628142940099</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0248326808903627</v>
+        <v>0.02720306520208171</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4712097248.301113</v>
+        <v>5152847360.983363</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1666931430508364</v>
+        <v>0.1831206911344091</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05390235833146294</v>
+        <v>0.03791052717010551</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4272450811.868304</v>
+        <v>2747767935.223401</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1386194789760674</v>
+        <v>0.1862707479430604</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04289535269981585</v>
+        <v>0.03335683868010864</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3088636072.394543</v>
+        <v>2332919932.520761</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1562046681970746</v>
+        <v>0.1506956266587236</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04034396423790101</v>
+        <v>0.0385347921295516</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3822637171.377718</v>
+        <v>3401152298.885134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06221540967741594</v>
+        <v>0.06630599920280274</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02965616747463744</v>
+        <v>0.02299085404508407</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2780600389.542766</v>
+        <v>2480570116.100108</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1883176123455605</v>
+        <v>0.1804361359586287</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03245921420226687</v>
+        <v>0.03919489438919107</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1626775915.583223</v>
+        <v>1386774290.562543</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09535709481572913</v>
+        <v>0.107659317947868</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04266964829461028</v>
+        <v>0.04471685842351246</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1948375786.456735</v>
+        <v>2879017056.409135</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1037971256210722</v>
+        <v>0.07287042520723093</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0486356814802481</v>
+        <v>0.03202013321640234</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4603781039.398767</v>
+        <v>4113691687.489028</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1380260102800673</v>
+        <v>0.1060786762569857</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04664912315854721</v>
+        <v>0.04588370279926514</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3666336965.80203</v>
+        <v>3391860035.709842</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1577622213433857</v>
+        <v>0.1517716417527405</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02253992676721926</v>
+        <v>0.03239885171452293</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1110013470.673685</v>
+        <v>969513114.1744038</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1616291814906146</v>
+        <v>0.1736434780321971</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01696407916269014</v>
+        <v>0.02159903219311193</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1791655682.719639</v>
+        <v>2438012580.626472</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1010398623163328</v>
+        <v>0.1331164944543546</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02293341674076078</v>
+        <v>0.02327084391254695</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1758370917.003111</v>
+        <v>2682888651.152819</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08464506607112691</v>
+        <v>0.07796046128789984</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02877314086960858</v>
+        <v>0.03540001190341042</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2604804388.232786</v>
+        <v>3742392516.573874</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1200068486818625</v>
+        <v>0.09832579596746624</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0359509918260851</v>
+        <v>0.05313828662931058</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>943071044.9555231</v>
+        <v>1247450338.477947</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1600798496487704</v>
+        <v>0.1289699980818017</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03753966464503392</v>
+        <v>0.0357377481472854</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3940674438.54731</v>
+        <v>2813367788.986458</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1202381791752248</v>
+        <v>0.1220496264974463</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03518789272257208</v>
+        <v>0.03550165016986123</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1485038046.060159</v>
+        <v>1357602398.352676</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1194062566794314</v>
+        <v>0.07764668110819065</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02533932907514349</v>
+        <v>0.02916746098916548</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1447142140.229183</v>
+        <v>1046871136.680563</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08357290967271883</v>
+        <v>0.1248448062254352</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02602737126048429</v>
+        <v>0.03012274909537582</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4255238480.286821</v>
+        <v>4635751823.466599</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0973464292888313</v>
+        <v>0.1234356509229034</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02377669232130424</v>
+        <v>0.02270749581729545</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2476363646.169101</v>
+        <v>2384462947.804564</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09570017171822459</v>
+        <v>0.115047256993369</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03637305224858937</v>
+        <v>0.03576877397959344</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5507668236.546705</v>
+        <v>5436183883.956319</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1187196523897883</v>
+        <v>0.144497090139416</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04423043133372494</v>
+        <v>0.03940329727319777</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1270,13 +1270,13 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1530185110.488765</v>
+        <v>1544126461.530624</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09994076160844532</v>
+        <v>0.1227920509034293</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03601764367214279</v>
+        <v>0.0338494767113112</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1190340072.287548</v>
+        <v>1050779098.677945</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08976041516219251</v>
+        <v>0.1117990738548897</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03264917598103245</v>
+        <v>0.05147397141874625</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1659277762.71469</v>
+        <v>1332079072.727863</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1057166414720445</v>
+        <v>0.0759647486877368</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02352189637415095</v>
+        <v>0.03661074775049437</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2177272595.966483</v>
+        <v>2205510093.983099</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1835170172218785</v>
+        <v>0.1719562124474654</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04783686484541618</v>
+        <v>0.04572255115270622</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1368256657.360699</v>
+        <v>1340080413.30293</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1062332345942284</v>
+        <v>0.1153762983987662</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02070831064176369</v>
+        <v>0.01973552576207492</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1108187597.369154</v>
+        <v>835408350.8778787</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1105907396114645</v>
+        <v>0.1063401886005893</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03062704331446796</v>
+        <v>0.02913451923680898</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2070973378.881366</v>
+        <v>2988683939.044678</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1522692599629946</v>
+        <v>0.1464132857213898</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02368862048034354</v>
+        <v>0.02220982844369162</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2333828596.298582</v>
+        <v>2000059104.006358</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06859528982391166</v>
+        <v>0.1017879766399051</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02832328660991646</v>
+        <v>0.03568587647291487</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1994127956.192549</v>
+        <v>1524081066.269338</v>
       </c>
       <c r="F38" t="n">
-        <v>0.113281806958396</v>
+        <v>0.1185723126531386</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0338835749709676</v>
+        <v>0.03765410174788144</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1604198975.252665</v>
+        <v>1433218012.011779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.147891737096718</v>
+        <v>0.1532651243340163</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0323944711068577</v>
+        <v>0.02636539672386403</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1661786489.470874</v>
+        <v>1505421785.887191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09904244535031952</v>
+        <v>0.1193476609177682</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05757776385648392</v>
+        <v>0.05133675237238841</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2772604274.140323</v>
+        <v>2223353470.798557</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1136641592628597</v>
+        <v>0.163182850546306</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04569791825583881</v>
+        <v>0.03492798002194474</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3325062963.641913</v>
+        <v>3063921341.156391</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08719247123604974</v>
+        <v>0.104332654011602</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04474360475817524</v>
+        <v>0.0333380611192472</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2862526267.945188</v>
+        <v>2704628040.658287</v>
       </c>
       <c r="F43" t="n">
-        <v>0.143213834768774</v>
+        <v>0.1746129774067298</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02388022417372808</v>
+        <v>0.02399449265204001</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1992650312.737247</v>
+        <v>1579021545.110102</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09556713276712291</v>
+        <v>0.09683041328373956</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02661590022226231</v>
+        <v>0.03042268388411458</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1568470801.506484</v>
+        <v>1872528499.611559</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1824020853893546</v>
+        <v>0.1406227538826537</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04543588422957749</v>
+        <v>0.03884123698235526</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3499434758.714281</v>
+        <v>3466511987.124143</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1122103610240094</v>
+        <v>0.1518591470502325</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04002934501107722</v>
+        <v>0.04061252772486426</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4435921659.480852</v>
+        <v>3421679641.163225</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1895100633193929</v>
+        <v>0.1475696021339994</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05055996859690506</v>
+        <v>0.05827517765803163</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4173705728.371109</v>
+        <v>3018501180.758991</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09309559228143273</v>
+        <v>0.1040477723884058</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02650911801085393</v>
+        <v>0.03236870995010483</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1203490387.886225</v>
+        <v>1784679479.350944</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1215712292411208</v>
+        <v>0.1221373729694912</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03419964137894158</v>
+        <v>0.03991046442876436</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2563719198.990979</v>
+        <v>3761188766.351719</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1349444760334096</v>
+        <v>0.1165877829414884</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04446411553251696</v>
+        <v>0.05110286894874094</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1302066600.960773</v>
+        <v>1081637789.864372</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1443784248315008</v>
+        <v>0.159525800229007</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04061886169210168</v>
+        <v>0.04656139146991403</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,16 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3797415124.695505</v>
+        <v>3300521204.326144</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1109217360094207</v>
+        <v>0.0946986846827706</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0437829547427271</v>
+        <v>0.0566527218916139</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3662021771.021774</v>
+        <v>2396945049.252781</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1810977714148881</v>
+        <v>0.1911357356800255</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02388221333427218</v>
+        <v>0.02496223397372617</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4432829888.178024</v>
+        <v>3779403818.149038</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1597674416884811</v>
+        <v>0.1534475870702292</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04415966861205205</v>
+        <v>0.04980538617598577</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4057437864.005463</v>
+        <v>4102676864.232389</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1688016329080615</v>
+        <v>0.2121232910511013</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02705531023328866</v>
+        <v>0.02163263711032355</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1171416960.736729</v>
+        <v>1228126728.955651</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1140598580936804</v>
+        <v>0.1411866603440959</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04222900690007782</v>
+        <v>0.05173670972731397</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3323183939.241036</v>
+        <v>3802885886.830548</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1346127060392888</v>
+        <v>0.1375554475544415</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02683312919493953</v>
+        <v>0.02348411809929838</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1653387883.222009</v>
+        <v>1893373657.739606</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1564327897431688</v>
+        <v>0.1672587388899906</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02921140845557853</v>
+        <v>0.03796454183753235</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4785415542.759902</v>
+        <v>3274361218.837512</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1056734642984045</v>
+        <v>0.09147091704180567</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03947945820386149</v>
+        <v>0.03231178397063664</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3162581712.531836</v>
+        <v>2635076264.673055</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1961504165539779</v>
+        <v>0.1947297719957564</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03261070937791583</v>
+        <v>0.02226283172793195</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2618234660.557937</v>
+        <v>3070586683.41103</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1470726832006776</v>
+        <v>0.1716344961923341</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03227522742675953</v>
+        <v>0.03186875776098373</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1484546445.2236</v>
+        <v>1409150480.694078</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1199657478256441</v>
+        <v>0.1502936504273792</v>
       </c>
       <c r="G62" t="n">
-        <v>0.047374413622143</v>
+        <v>0.04508278931853562</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5177089892.408806</v>
+        <v>4933317260.402106</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1068561494160632</v>
+        <v>0.07568538731460783</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04186617799190792</v>
+        <v>0.03337616548366667</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4848000772.656769</v>
+        <v>5267508541.035647</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1818692264316764</v>
+        <v>0.1544764675272124</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02242358281203023</v>
+        <v>0.03080279434707147</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4591192103.789783</v>
+        <v>3644812882.202306</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1372894136757075</v>
+        <v>0.1585835074083511</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02079553098361233</v>
+        <v>0.0301178585630675</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4150041636.104907</v>
+        <v>5222339228.673605</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1097074929316377</v>
+        <v>0.1386468497813039</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04232489586038366</v>
+        <v>0.03828888008627394</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2683053081.348147</v>
+        <v>3441883867.669285</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08215464530587971</v>
+        <v>0.07592024475318149</v>
       </c>
       <c r="G67" t="n">
-        <v>0.05050173667238798</v>
+        <v>0.03854131322105669</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4935952964.139359</v>
+        <v>3781645785.459288</v>
       </c>
       <c r="F68" t="n">
-        <v>0.158965885710393</v>
+        <v>0.1366416162545188</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03462300162328453</v>
+        <v>0.03938648176601951</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2291861267.461424</v>
+        <v>1641576896.035918</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1398753246035635</v>
+        <v>0.1275520689695392</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04159848391850481</v>
+        <v>0.05718377455062126</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3721099710.768401</v>
+        <v>2805794275.631355</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08871742285836388</v>
+        <v>0.07585828769765063</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03869205684918775</v>
+        <v>0.04483705272971813</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4545006726.512682</v>
+        <v>4843342206.531784</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1717158712405883</v>
+        <v>0.1486504017727765</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03284805065780457</v>
+        <v>0.03038455036205188</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1399575265.860777</v>
+        <v>2082848225.867668</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09746029582504284</v>
+        <v>0.08593008187306571</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04120026146444806</v>
+        <v>0.05250312212467041</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3005285693.703907</v>
+        <v>3128688226.520124</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0882586996873614</v>
+        <v>0.1007817481670693</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04860827314951306</v>
+        <v>0.03769249999947143</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3546534195.185147</v>
+        <v>2706042087.746359</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1452577927992329</v>
+        <v>0.1495991295359032</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03077494688971538</v>
+        <v>0.03442247260574887</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2464907426.440147</v>
+        <v>1927075329.70638</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1625671058343553</v>
+        <v>0.1419895423049499</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02632953348000459</v>
+        <v>0.02683271703248229</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3549497665.454023</v>
+        <v>5015297220.511263</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1238119154091698</v>
+        <v>0.09568757422862603</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03093814149438929</v>
+        <v>0.03274304834315727</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2213791231.136153</v>
+        <v>1661568616.737954</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1680996169823618</v>
+        <v>0.1484204672079261</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02547049685969158</v>
+        <v>0.02755109169632302</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3929249522.118822</v>
+        <v>4782445082.598578</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09712046826266447</v>
+        <v>0.1212220410130592</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03911682294671237</v>
+        <v>0.05087995528216421</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1726382751.618973</v>
+        <v>1212341232.929128</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1353942496047763</v>
+        <v>0.168846336285402</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02908765943151847</v>
+        <v>0.03895043161898132</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5268721638.020836</v>
+        <v>4486017116.842889</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07520875421412097</v>
+        <v>0.07184299381237187</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03833404465223603</v>
+        <v>0.03794764885050223</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4980038656.365096</v>
+        <v>4229815801.354215</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1238814771840984</v>
+        <v>0.1256319347807751</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02843647808845196</v>
+        <v>0.03209593161984885</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5310801028.693477</v>
+        <v>3616359731.959494</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1780895642903645</v>
+        <v>0.1589949583297602</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02788998441105235</v>
+        <v>0.02465412621260043</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2004571714.972297</v>
+        <v>1520625873.60496</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1256520892051034</v>
+        <v>0.1107198779252791</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02819729994215721</v>
+        <v>0.02827730243918276</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2521929365.216021</v>
+        <v>1583490920.909058</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1164976202036191</v>
+        <v>0.08544740598891185</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04379772242064873</v>
+        <v>0.05139830462469559</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2658143687.174023</v>
+        <v>3471388622.109318</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1398994607545391</v>
+        <v>0.1822937662379644</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0552133430064734</v>
+        <v>0.03954527988921006</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1760254814.803136</v>
+        <v>2147121806.55866</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1359130066738996</v>
+        <v>0.1187638889608696</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01898466929325473</v>
+        <v>0.02613348762653963</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>936893364.9474066</v>
+        <v>1350587049.451911</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1347416848765313</v>
+        <v>0.1810853270995959</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02942542148457862</v>
+        <v>0.03464352838770744</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3112289114.592379</v>
+        <v>2878023820.193708</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1343589325734537</v>
+        <v>0.1519083813402385</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02434310538742971</v>
+        <v>0.03412693780538908</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2688167376.902989</v>
+        <v>3370046808.100657</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1242910639853034</v>
+        <v>0.1051158410330371</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02622702344385744</v>
+        <v>0.03165253726564751</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2110931098.115826</v>
+        <v>1623167295.043835</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09066862484284983</v>
+        <v>0.1017595330219187</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04290753711050491</v>
+        <v>0.03870735799973999</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2015310204.438146</v>
+        <v>1729052341.702879</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1509109425824375</v>
+        <v>0.1444063266414848</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05163958285125053</v>
+        <v>0.05224169697261718</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2867571169.957527</v>
+        <v>2181581806.844074</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07597487401637013</v>
+        <v>0.08149687168093132</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04729217376429087</v>
+        <v>0.04758460200045483</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3650513306.878531</v>
+        <v>3186644413.740175</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1019285222075908</v>
+        <v>0.1033680737833607</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03528650877707109</v>
+        <v>0.04816903376440475</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2030587810.147868</v>
+        <v>1804787032.509436</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1344723909652547</v>
+        <v>0.1254959436006282</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03937626266733273</v>
+        <v>0.03400425457993212</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3253443836.554805</v>
+        <v>2695819515.721466</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1130973305812715</v>
+        <v>0.1001584740915483</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04090107986691592</v>
+        <v>0.03732527386211484</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1899601931.226503</v>
+        <v>1818523897.364627</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1094887509579323</v>
+        <v>0.1024822527601098</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04302841853269783</v>
+        <v>0.0332730914868779</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,19 +3140,19 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3698206814.159863</v>
+        <v>4133148433.752537</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1139679176334203</v>
+        <v>0.1619215101737968</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02625616329680645</v>
+        <v>0.02739685538473508</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3668465913.051889</v>
+        <v>2538709355.545562</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1117888187046692</v>
+        <v>0.09955902907566391</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03232095940222282</v>
+        <v>0.02324938291523516</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3226748461.367834</v>
+        <v>2368796701.090041</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1145132746054705</v>
+        <v>0.1382217691840098</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02789823861514432</v>
+        <v>0.0250380933037434</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4407156300.067461</v>
+        <v>3761459018.186556</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1268713144869637</v>
+        <v>0.1338804950087746</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02472368644654216</v>
+        <v>0.02734204364736006</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2437478383.054851</v>
+        <v>3142599188.812607</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1445565721705075</v>
+        <v>0.17482105592053</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05531627834108569</v>
+        <v>0.05496842323123238</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_10.xlsx
+++ b/output/fit_clients/fit_round_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1628880786.484967</v>
+        <v>2412579964.97951</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09861380307056404</v>
+        <v>0.09639249221880797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02747613077954946</v>
+        <v>0.04241844375052991</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2192615370.546421</v>
+        <v>2525406181.541391</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1531995210813867</v>
+        <v>0.1483804567609198</v>
       </c>
       <c r="G3" t="n">
-        <v>0.049674942964673</v>
+        <v>0.03627037729480129</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3952866983.321013</v>
+        <v>3850263166.621716</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1653789565298622</v>
+        <v>0.1035782750528113</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03076648766697989</v>
+        <v>0.0276791478271717</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>185.8037186500829</v>
       </c>
     </row>
     <row r="5">
@@ -570,16 +608,25 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3118030168.948419</v>
+        <v>4104664422.584845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09800113633320642</v>
+        <v>0.09851463331090432</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0316870761841781</v>
+        <v>0.03479812932293532</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+      <c r="K5" t="n">
+        <v>219.4534916586777</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2871482666.884054</v>
+        <v>1884693315.099707</v>
       </c>
       <c r="F6" t="n">
-        <v>0.129260365860546</v>
+        <v>0.1362028340781589</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04997818348019249</v>
+        <v>0.03896531930900075</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2615607167.508602</v>
+        <v>2901922488.447107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09899712086342161</v>
+        <v>0.09634766626818926</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04894669175792708</v>
+        <v>0.04729212969302628</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +709,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2957223314.851808</v>
+        <v>3274103680.900645</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1843366813294922</v>
+        <v>0.1801309905763164</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02889583017948626</v>
+        <v>0.02943705701152808</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>125.8362885445938</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +746,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2257723414.011096</v>
+        <v>1864937758.638921</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1647628142940099</v>
+        <v>0.1478821913595131</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02720306520208171</v>
+        <v>0.03123194793673639</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +781,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5152847360.983363</v>
+        <v>5206170075.093602</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1831206911344091</v>
+        <v>0.1768078218988292</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03791052717010551</v>
+        <v>0.03739485306018948</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="n">
+        <v>239.1233696863941</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +818,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2747767935.223401</v>
+        <v>3991257431.968875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1862707479430604</v>
+        <v>0.1255216104552168</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03335683868010864</v>
+        <v>0.04697095276039755</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>213.3072160250902</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +861,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2332919932.520761</v>
+        <v>3176277192.684445</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1506956266587236</v>
+        <v>0.1699160554859121</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0385347921295516</v>
+        <v>0.0453545521661284</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +890,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3401152298.885134</v>
+        <v>5101683554.197956</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06630599920280274</v>
+        <v>0.06282879123106505</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02299085404508407</v>
+        <v>0.02623859403990513</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>212.1984940866172</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +927,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2480570116.100108</v>
+        <v>3389342555.722632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1804361359586287</v>
+        <v>0.1157607378752518</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03919489438919107</v>
+        <v>0.03860783633494107</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +962,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1386774290.562543</v>
+        <v>1627997400.816238</v>
       </c>
       <c r="F15" t="n">
-        <v>0.107659317947868</v>
+        <v>0.07618942630300908</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04471685842351246</v>
+        <v>0.04377413541314837</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +997,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2879017056.409135</v>
+        <v>2500676771.578059</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07287042520723093</v>
+        <v>0.09052884371828471</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03202013321640234</v>
+        <v>0.04886471279081665</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1038,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4113691687.489028</v>
+        <v>3576743715.101803</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1060786762569857</v>
+        <v>0.1088455663953797</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04588370279926514</v>
+        <v>0.03626666599452139</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1073,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3391860035.709842</v>
+        <v>2888793210.857368</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1517716417527405</v>
+        <v>0.1750734801644204</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03239885171452293</v>
+        <v>0.02831148901627004</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1102,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>969513114.1744038</v>
+        <v>1207269602.936084</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1736434780321971</v>
+        <v>0.1504031138851316</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02159903219311193</v>
+        <v>0.01684906703617716</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1137,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2438012580.626472</v>
+        <v>2772415218.226741</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1331164944543546</v>
+        <v>0.1377012462965801</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02327084391254695</v>
+        <v>0.03126703552356173</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1172,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2682888651.152819</v>
+        <v>2281568050.56066</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07796046128789984</v>
+        <v>0.07991488540639059</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03540001190341042</v>
+        <v>0.04583004737821748</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1213,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3742392516.573874</v>
+        <v>2449839054.465655</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09832579596746624</v>
+        <v>0.133990528577105</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05313828662931058</v>
+        <v>0.04147029737339995</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1242,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1247450338.477947</v>
+        <v>1286186602.879668</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1289699980818017</v>
+        <v>0.1615820212399025</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0357377481472854</v>
+        <v>0.04522757232402317</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1283,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2813367788.986458</v>
+        <v>3027535793.377617</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1220496264974463</v>
+        <v>0.115476729103026</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03550165016986123</v>
+        <v>0.02453258356425853</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>6</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1312,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1357602398.352676</v>
+        <v>1175211755.590089</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07764668110819065</v>
+        <v>0.1171010150280261</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02916746098916548</v>
+        <v>0.023493886693985</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1353,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1046871136.680563</v>
+        <v>1276192269.621854</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1248448062254352</v>
+        <v>0.117357324771456</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03012274909537582</v>
+        <v>0.03569956212836497</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1382,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4635751823.466599</v>
+        <v>4525683958.804573</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1234356509229034</v>
+        <v>0.1137223844730964</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02270749581729545</v>
+        <v>0.02137970330421779</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>4</v>
+      </c>
+      <c r="J27" t="n">
+        <v>9</v>
+      </c>
+      <c r="K27" t="n">
+        <v>171.5913320392575</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1419,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2384462947.804564</v>
+        <v>3590610052.93349</v>
       </c>
       <c r="F28" t="n">
-        <v>0.115047256993369</v>
+        <v>0.1378734951463156</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03576877397959344</v>
+        <v>0.03682552866694119</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>10</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1460,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5436183883.956319</v>
+        <v>4151809196.813494</v>
       </c>
       <c r="F29" t="n">
-        <v>0.144497090139416</v>
+        <v>0.1343342844307316</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03940329727319777</v>
+        <v>0.03270294433599436</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>10</v>
+      </c>
+      <c r="K29" t="n">
+        <v>242.0149945778989</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1497,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1544126461.530624</v>
+        <v>1920505164.804875</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1227920509034293</v>
+        <v>0.112540518018864</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0338494767113112</v>
+        <v>0.04027795378967988</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1526,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1050779098.677945</v>
+        <v>1136734305.414182</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1117990738548897</v>
+        <v>0.09017948536658348</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05147397141874625</v>
+        <v>0.04799080768309957</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1561,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1332079072.727863</v>
+        <v>1307444152.294934</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0759647486877368</v>
+        <v>0.1152535222909545</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03661074775049437</v>
+        <v>0.03086674083746724</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1602,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2205510093.983099</v>
+        <v>2578938765.006168</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1719562124474654</v>
+        <v>0.136824396491242</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04572255115270622</v>
+        <v>0.04812025102624079</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1631,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1340080413.30293</v>
+        <v>1194475775.106733</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1153762983987662</v>
+        <v>0.1218471656150341</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01973552576207492</v>
+        <v>0.02503337104145615</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1672,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>835408350.8778787</v>
+        <v>1234068543.760713</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1063401886005893</v>
+        <v>0.1059152975823869</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02913451923680898</v>
+        <v>0.03436303882754638</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1701,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2988683939.044678</v>
+        <v>2583113124.54006</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1464132857213898</v>
+        <v>0.1597563597942201</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02220982844369162</v>
+        <v>0.02409876410629921</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1736,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2000059104.006358</v>
+        <v>2894074234.745312</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1017879766399051</v>
+        <v>0.1065556366428485</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03568587647291487</v>
+        <v>0.03245731266062103</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1771,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1524081066.269338</v>
+        <v>1778704307.514372</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1185723126531386</v>
+        <v>0.1089953909503249</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03765410174788144</v>
+        <v>0.03775774296479727</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1812,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1433218012.011779</v>
+        <v>1703429645.607466</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1532651243340163</v>
+        <v>0.1500589462439022</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02636539672386403</v>
+        <v>0.02955022296621872</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1841,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1505421785.887191</v>
+        <v>1538965527.064106</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1193476609177682</v>
+        <v>0.1096849252347947</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05133675237238841</v>
+        <v>0.05878584123176609</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1882,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2223353470.798557</v>
+        <v>2724691888.525546</v>
       </c>
       <c r="F41" t="n">
-        <v>0.163182850546306</v>
+        <v>0.1391423776442498</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03492798002194474</v>
+        <v>0.04638212360294845</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1917,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3063921341.156391</v>
+        <v>3557343612.212649</v>
       </c>
       <c r="F42" t="n">
-        <v>0.104332654011602</v>
+        <v>0.124689813712299</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0333380611192472</v>
+        <v>0.04495281199643249</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1946,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2704628040.658287</v>
+        <v>2489471210.591725</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1746129774067298</v>
+        <v>0.2046395520197523</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02399449265204001</v>
+        <v>0.01907408239159394</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1987,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1579021545.110102</v>
+        <v>1787200691.879511</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09683041328373956</v>
+        <v>0.07609951705681606</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03042268388411458</v>
+        <v>0.03302193660559869</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2016,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1872528499.611559</v>
+        <v>1851156509.81701</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1406227538826537</v>
+        <v>0.1344651019076974</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03884123698235526</v>
+        <v>0.04774308969655389</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2051,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3466511987.124143</v>
+        <v>3743337854.324254</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1518591470502325</v>
+        <v>0.1213933189320307</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04061252772486426</v>
+        <v>0.04355446337086952</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>10</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3421679641.163225</v>
+        <v>3388222959.369878</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1475696021339994</v>
+        <v>0.1679350266850214</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05827517765803163</v>
+        <v>0.05573160380313485</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" t="n">
+        <v>7</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3018501180.758991</v>
+        <v>4194906002.303503</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1040477723884058</v>
+        <v>0.09080012478878841</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03236870995010483</v>
+        <v>0.02554252378837387</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" t="n">
+        <v>10</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1784679479.350944</v>
+        <v>1557147956.051535</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1221373729694912</v>
+        <v>0.1495064632178611</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03991046442876436</v>
+        <v>0.04360779911738633</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3761188766.351719</v>
+        <v>3326447525.15574</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1165877829414884</v>
+        <v>0.177935475855909</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05110286894874094</v>
+        <v>0.03234212106666624</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>8</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1081637789.864372</v>
+        <v>1289650385.698337</v>
       </c>
       <c r="F51" t="n">
-        <v>0.159525800229007</v>
+        <v>0.1347977277804165</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04656139146991403</v>
+        <v>0.03674665134112677</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3300521204.326144</v>
+        <v>3301262533.900881</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0946986846827706</v>
+        <v>0.1362143111537703</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0566527218916139</v>
+        <v>0.04532370913475215</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>7</v>
+      </c>
+      <c r="J52" t="n">
+        <v>9</v>
+      </c>
+      <c r="K52" t="n">
+        <v>145.8242824238286</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2396945049.252781</v>
+        <v>3798749855.661922</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1911357356800255</v>
+        <v>0.1971149631128747</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02496223397372617</v>
+        <v>0.03095905384917757</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3779403818.149038</v>
+        <v>4743932470.271426</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1534475870702292</v>
+        <v>0.1580718356640071</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04980538617598577</v>
+        <v>0.04850986907440704</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>4</v>
+      </c>
+      <c r="J54" t="n">
+        <v>10</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4102676864.232389</v>
+        <v>4402869915.143559</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2121232910511013</v>
+        <v>0.1958398983879389</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02163263711032355</v>
+        <v>0.02508241792375266</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>10</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1228126728.955651</v>
+        <v>1781002436.211529</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1411866603440959</v>
+        <v>0.1312509493378354</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05173670972731397</v>
+        <v>0.04479319765389987</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2444,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3802885886.830548</v>
+        <v>4305798550.361312</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1375554475544415</v>
+        <v>0.1709230515781685</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02348411809929838</v>
+        <v>0.02660545162838105</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>4</v>
+      </c>
+      <c r="J57" t="n">
+        <v>9</v>
+      </c>
+      <c r="K57" t="n">
+        <v>202.1042423749976</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1893373657.739606</v>
+        <v>1469310491.471677</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1672587388899906</v>
+        <v>0.198016855311253</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03796454183753235</v>
+        <v>0.02566046057089862</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2516,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3274361218.837512</v>
+        <v>4908423744.626387</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09147091704180567</v>
+        <v>0.1186768934859542</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03231178397063664</v>
+        <v>0.03379451524511797</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>5</v>
+      </c>
+      <c r="J59" t="n">
+        <v>9</v>
+      </c>
+      <c r="K59" t="n">
+        <v>187.1161801898148</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2635076264.673055</v>
+        <v>3776698582.613581</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1947297719957564</v>
+        <v>0.1362418464908341</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02226283172793195</v>
+        <v>0.03282367122345478</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>10</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3070586683.41103</v>
+        <v>2178970692.378551</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1716344961923341</v>
+        <v>0.1276564132669355</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03186875776098373</v>
+        <v>0.0285472505372293</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1409150480.694078</v>
+        <v>1324620299.279302</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1502936504273792</v>
+        <v>0.1593658689426685</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04508278931853562</v>
+        <v>0.03190055141512335</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4933317260.402106</v>
+        <v>5257027610.331889</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07568538731460783</v>
+        <v>0.09150589020480697</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03337616548366667</v>
+        <v>0.02999591420747891</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>5</v>
+      </c>
+      <c r="J63" t="n">
+        <v>9</v>
+      </c>
+      <c r="K63" t="n">
+        <v>196.4471419200441</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5267508541.035647</v>
+        <v>4379345412.686032</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1544764675272124</v>
+        <v>0.1917821976900817</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03080279434707147</v>
+        <v>0.0274487303572377</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>5</v>
+      </c>
+      <c r="J64" t="n">
+        <v>9</v>
+      </c>
+      <c r="K64" t="n">
+        <v>201.2665542194808</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3644812882.202306</v>
+        <v>5986382203.993228</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1585835074083511</v>
+        <v>0.1063569532539677</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0301178585630675</v>
+        <v>0.03201304091056185</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.6126666824445</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2769,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5222339228.673605</v>
+        <v>5352494931.859725</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1386468497813039</v>
+        <v>0.1449152319670011</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03828888008627394</v>
+        <v>0.03221627833439929</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>5</v>
+      </c>
+      <c r="J66" t="n">
+        <v>9</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.8020715698686</v>
       </c>
     </row>
     <row r="67">
@@ -2306,17 +2806,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3441883867.669285</v>
+        <v>2559462587.149413</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07592024475318149</v>
+        <v>0.1016402470834454</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03854131322105669</v>
+        <v>0.04209315624176372</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3781645785.459288</v>
+        <v>3777916034.865328</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1366416162545188</v>
+        <v>0.1144240181271098</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03938648176601951</v>
+        <v>0.03278920820597767</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
+        <v>9</v>
+      </c>
+      <c r="K68" t="n">
+        <v>167.4136993059965</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1641576896.035918</v>
+        <v>2413222353.976045</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1275520689695392</v>
+        <v>0.1212411979483708</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05718377455062126</v>
+        <v>0.05212962157713037</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2805794275.631355</v>
+        <v>2533463539.152841</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07585828769765063</v>
+        <v>0.09399305157429527</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04483705272971813</v>
+        <v>0.04474836613803641</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>2</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2942,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4843342206.531784</v>
+        <v>5369034516.858009</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1486504017727765</v>
+        <v>0.1822568698126973</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03038455036205188</v>
+        <v>0.0216622381513462</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>6</v>
+      </c>
+      <c r="J71" t="n">
+        <v>10</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2082848225.867668</v>
+        <v>1917155281.393838</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08593008187306571</v>
+        <v>0.1052650774830377</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05250312212467041</v>
+        <v>0.03859957308099952</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3128688226.520124</v>
+        <v>3154329627.733867</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1007817481670693</v>
+        <v>0.08688808040579583</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03769249999947143</v>
+        <v>0.03696389607740067</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2706042087.746359</v>
+        <v>2916981785.045037</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1495991295359032</v>
+        <v>0.164044340192229</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03442247260574887</v>
+        <v>0.03364542251985234</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>8</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1927075329.70638</v>
+        <v>1891235958.986281</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1419895423049499</v>
+        <v>0.155878101837557</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02683271703248229</v>
+        <v>0.02979908284377286</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5015297220.511263</v>
+        <v>3384291722.660095</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09568757422862603</v>
+        <v>0.09614549170249574</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03274304834315727</v>
+        <v>0.03130649313747803</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>4</v>
+      </c>
+      <c r="J76" t="n">
+        <v>9</v>
+      </c>
+      <c r="K76" t="n">
+        <v>113.4194769457306</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1661568616.737954</v>
+        <v>2283768702.575116</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1484204672079261</v>
+        <v>0.1427722783038585</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02755109169632302</v>
+        <v>0.02013550119068788</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4782445082.598578</v>
+        <v>3863545506.902588</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1212220410130592</v>
+        <v>0.1124440421638991</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05087995528216421</v>
+        <v>0.0551670309863801</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>10</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1212341232.929128</v>
+        <v>1323078489.730506</v>
       </c>
       <c r="F79" t="n">
-        <v>0.168846336285402</v>
+        <v>0.1424999976951004</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03895043161898132</v>
+        <v>0.02963437272039974</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4486017116.842889</v>
+        <v>5025175854.840518</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07184299381237187</v>
+        <v>0.1077877764031117</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03794764885050223</v>
+        <v>0.03839712858921908</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>10</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4229815801.354215</v>
+        <v>3509716054.625455</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1256319347807751</v>
+        <v>0.1334161977008392</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03209593161984885</v>
+        <v>0.02342876707773054</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>10</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3616359731.959494</v>
+        <v>3480386460.491907</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1589949583297602</v>
+        <v>0.1807260272510595</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02465412621260043</v>
+        <v>0.02149185423614607</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>9</v>
+      </c>
+      <c r="K82" t="n">
+        <v>150.6786777928041</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1520625873.60496</v>
+        <v>2138062841.864804</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1107198779252791</v>
+        <v>0.1415045948594966</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02827730243918276</v>
+        <v>0.03151228718684162</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1583490920.909058</v>
+        <v>2277869229.33318</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08544740598891185</v>
+        <v>0.1036498786156263</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05139830462469559</v>
+        <v>0.04324262590102451</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3471388622.109318</v>
+        <v>3301903519.348482</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1822937662379644</v>
+        <v>0.1626714338455311</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03954527988921006</v>
+        <v>0.04236375896566725</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>2</v>
+      </c>
+      <c r="J85" t="n">
+        <v>8</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2147121806.55866</v>
+        <v>2766913806.890107</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1187638889608696</v>
+        <v>0.1120667475430018</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02613348762653963</v>
+        <v>0.01672998691670596</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1350587049.451911</v>
+        <v>955952821.0788428</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1810853270995959</v>
+        <v>0.1765679027611038</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03464352838770744</v>
+        <v>0.03585751370902238</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2878023820.193708</v>
+        <v>2740010084.348997</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1519083813402385</v>
+        <v>0.1655033891792349</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03412693780538908</v>
+        <v>0.03860168674899699</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>6</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3370046808.100657</v>
+        <v>3504377985.941491</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1051158410330371</v>
+        <v>0.1168007137851911</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03165253726564751</v>
+        <v>0.0400439092251021</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>1</v>
+      </c>
+      <c r="J89" t="n">
+        <v>10</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3617,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1623167295.043835</v>
+        <v>1392592473.17379</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1017595330219187</v>
+        <v>0.09293347113948071</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03870735799973999</v>
+        <v>0.03441665571197927</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1729052341.702879</v>
+        <v>1741245951.508444</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1444063266414848</v>
+        <v>0.1723591999193927</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05224169697261718</v>
+        <v>0.05319221785533844</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2181581806.844074</v>
+        <v>1919736855.409624</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08149687168093132</v>
+        <v>0.09675635107512094</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04758460200045483</v>
+        <v>0.04666811807630124</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3186644413.740175</v>
+        <v>4321567272.484085</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1033680737833607</v>
+        <v>0.141264566369466</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04816903376440475</v>
+        <v>0.04512660346201374</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>9</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.4364636134337</v>
       </c>
     </row>
     <row r="94">
@@ -3062,17 +3759,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1804787032.509436</v>
+        <v>1857420364.351945</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1254959436006282</v>
+        <v>0.1617297564518262</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03400425457993212</v>
+        <v>0.04109905327810494</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2695819515.721466</v>
+        <v>2041440359.801457</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1001584740915483</v>
+        <v>0.08334195687295368</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03732527386211484</v>
+        <v>0.04003565187135195</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1818523897.364627</v>
+        <v>1662882979.096869</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1024822527601098</v>
+        <v>0.1182750753128995</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0332730914868779</v>
+        <v>0.03337760629696779</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4133148433.752537</v>
+        <v>4501223521.748639</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1619215101737968</v>
+        <v>0.1212364974834282</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02739685538473508</v>
+        <v>0.02049922200215663</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>4</v>
+      </c>
+      <c r="J97" t="n">
+        <v>10</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2538709355.545562</v>
+        <v>2706822706.275425</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09955902907566391</v>
+        <v>0.1003860812811346</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02324938291523516</v>
+        <v>0.02962706058277487</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>8</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2368796701.090041</v>
+        <v>2932206367.637579</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1382217691840098</v>
+        <v>0.1112185402423381</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0250380933037434</v>
+        <v>0.03230129548018912</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3761459018.186556</v>
+        <v>4129463925.88151</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1338804950087746</v>
+        <v>0.1160031059658086</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02734204364736006</v>
+        <v>0.01751155845993441</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>9</v>
+      </c>
+      <c r="K100" t="n">
+        <v>197.8693857898917</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3142599188.812607</v>
+        <v>3487731969.004007</v>
       </c>
       <c r="F101" t="n">
-        <v>0.17482105592053</v>
+        <v>0.1906467175678074</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05496842323123238</v>
+        <v>0.04085204087733058</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
